--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H2">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I2">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>0.1764025587702223</v>
+        <v>0.1193136965255556</v>
       </c>
       <c r="R2">
-        <v>1.587623028932</v>
+        <v>1.07382326873</v>
       </c>
       <c r="S2">
-        <v>0.05613257337899905</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="T2">
-        <v>0.05613257337899903</v>
+        <v>0.09529921759032917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H3">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I3">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>1.177566376930222</v>
+        <v>0.8344106008155555</v>
       </c>
       <c r="R3">
-        <v>10.598097392372</v>
+        <v>7.509695407339999</v>
       </c>
       <c r="S3">
-        <v>0.3747101602294659</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="T3">
-        <v>0.3747101602294658</v>
+        <v>0.6664673019309812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H4">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I4">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>0.01917151588333334</v>
+        <v>0.001568776417777778</v>
       </c>
       <c r="R4">
-        <v>0.17254364295</v>
+        <v>0.01411898776</v>
       </c>
       <c r="S4">
-        <v>0.006100515375798018</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="T4">
-        <v>0.006100515375798016</v>
+        <v>0.001253026010776221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H5">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I5">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>0.415158380044</v>
+        <v>0.2941311071566666</v>
       </c>
       <c r="R5">
-        <v>3.736425420396</v>
+        <v>2.64717996441</v>
       </c>
       <c r="S5">
-        <v>0.1321064070396015</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="T5">
-        <v>0.1321064070396015</v>
+        <v>0.2349308184832226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,356 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H6">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I6">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>0.05100009519488889</v>
+        <v>0.002566124382222222</v>
       </c>
       <c r="R6">
-        <v>0.459000856754</v>
+        <v>0.02309511944</v>
       </c>
       <c r="S6">
-        <v>0.01622860011680448</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="T6">
-        <v>0.01622860011680447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.07321</v>
-      </c>
-      <c r="I7">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J7">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.122124666666667</v>
-      </c>
-      <c r="N7">
-        <v>15.366374</v>
-      </c>
-      <c r="O7">
-        <v>0.09590749833957241</v>
-      </c>
-      <c r="P7">
-        <v>0.09590749833957241</v>
-      </c>
-      <c r="Q7">
-        <v>0.1249969156155556</v>
-      </c>
-      <c r="R7">
-        <v>1.12497224054</v>
-      </c>
-      <c r="S7">
-        <v>0.03977492496057337</v>
-      </c>
-      <c r="T7">
-        <v>0.03977492496057336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.07321</v>
-      </c>
-      <c r="I8">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J8">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>34.19248466666667</v>
-      </c>
-      <c r="N8">
-        <v>102.577454</v>
-      </c>
-      <c r="O8">
-        <v>0.6402256641145507</v>
-      </c>
-      <c r="P8">
-        <v>0.6402256641145507</v>
-      </c>
-      <c r="Q8">
-        <v>0.8344106008155556</v>
-      </c>
-      <c r="R8">
-        <v>7.509695407340001</v>
-      </c>
-      <c r="S8">
-        <v>0.2655155038850848</v>
-      </c>
-      <c r="T8">
-        <v>0.2655155038850848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.07321</v>
-      </c>
-      <c r="I9">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J9">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.556675</v>
-      </c>
-      <c r="N9">
-        <v>1.670025</v>
-      </c>
-      <c r="O9">
-        <v>0.01042327356567948</v>
-      </c>
-      <c r="P9">
-        <v>0.01042327356567948</v>
-      </c>
-      <c r="Q9">
-        <v>0.01358472558333333</v>
-      </c>
-      <c r="R9">
-        <v>0.12226253025</v>
-      </c>
-      <c r="S9">
-        <v>0.004322758189881461</v>
-      </c>
-      <c r="T9">
-        <v>0.00432275818988146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.07321</v>
-      </c>
-      <c r="I10">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J10">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>12.054774</v>
-      </c>
-      <c r="N10">
-        <v>36.164322</v>
-      </c>
-      <c r="O10">
-        <v>0.2257155560685144</v>
-      </c>
-      <c r="P10">
-        <v>0.2257155560685144</v>
-      </c>
-      <c r="Q10">
-        <v>0.29417666818</v>
-      </c>
-      <c r="R10">
-        <v>2.64759001362</v>
-      </c>
-      <c r="S10">
-        <v>0.09360914902891292</v>
-      </c>
-      <c r="T10">
-        <v>0.09360914902891289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.07321</v>
-      </c>
-      <c r="I11">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J11">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.480867666666667</v>
-      </c>
-      <c r="N11">
-        <v>4.442603</v>
-      </c>
-      <c r="O11">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="P11">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="Q11">
-        <v>0.03613810729222222</v>
-      </c>
-      <c r="R11">
-        <v>0.32524296563</v>
-      </c>
-      <c r="S11">
-        <v>0.01149940779487849</v>
-      </c>
-      <c r="T11">
-        <v>0.01149940779487849</v>
+        <v>0.002049635984690701</v>
       </c>
     </row>
   </sheetData>
